--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/72.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/72.xlsx
@@ -479,13 +479,13 @@
         <v>-0.0427189465138197</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.667409496675101</v>
+        <v>-1.66894573933749</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2100661167599476</v>
+        <v>-0.2074107465023134</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3193187839694284</v>
+        <v>-0.3167405406487379</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.02642402262534636</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.812474246932415</v>
+        <v>-1.811917831173035</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.195070436591316</v>
+        <v>-0.1927707946550957</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3215271327966132</v>
+        <v>-0.318610475364843</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.01404626278104667</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.994928247397105</v>
+        <v>-1.992617587327036</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2708783455113997</v>
+        <v>-0.2678247484160763</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3536922135403928</v>
+        <v>-0.3503002023339898</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01154616111384225</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.02251371950746</v>
+        <v>-2.0210608998585</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2433345849077589</v>
+        <v>-0.2410365169906599</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3574824515844848</v>
+        <v>-0.3543832079346438</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.01688081874373206</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.961213544828405</v>
+        <v>-1.958443271174916</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1940126957418019</v>
+        <v>-0.1926385770489064</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3708175415801442</v>
+        <v>-0.3677765366377913</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.0301764575266606</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.713901299460959</v>
+        <v>-1.711987292209457</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1718536545521308</v>
+        <v>-0.1692124504665883</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3894476318998592</v>
+        <v>-0.3858934967239622</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05290985833644404</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.496755130553241</v>
+        <v>-1.4923738483291</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05335047696676594</v>
+        <v>-0.0511987928279479</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3725772949577584</v>
+        <v>-0.3690688063363792</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.0828281379647013</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.216779627390123</v>
+        <v>-1.211089548266622</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.004683379755269971</v>
+        <v>-0.001933568350357669</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3220969277185241</v>
+        <v>-0.3195218324360761</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.108962668266981</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.040451709345535</v>
+        <v>-1.031903211497751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1463547730673801</v>
+        <v>0.1465405073236936</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3179210549897133</v>
+        <v>-0.3144629349802157</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1153460294315008</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8150167557450475</v>
+        <v>-0.8034429931461236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1759069820698005</v>
+        <v>0.1745580476828459</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3049952099655921</v>
+        <v>-0.301319875317355</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08733906940357757</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5936892050415938</v>
+        <v>-0.5791106399401069</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1727715359801696</v>
+        <v>0.1696722923303285</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2577352858485389</v>
+        <v>-0.2539214375176274</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.01905934988150154</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3966015488061708</v>
+        <v>-0.3765280829522232</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005531776061651041</v>
+        <v>-0.008489357990575035</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2062632865628851</v>
+        <v>-0.2028287768402071</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.08892441780210832</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08922866881769381</v>
+        <v>-0.06819190326151012</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1208821933470507</v>
+        <v>-0.125202875835021</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09577029228581947</v>
+        <v>-0.09245698203548153</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2281893698443076</v>
       </c>
       <c r="E15" t="n">
-        <v>0.299993205478419</v>
+        <v>0.323601918278808</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3999699497257543</v>
+        <v>-0.4031966889244207</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03760736599583691</v>
+        <v>0.03935924927784457</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.389033893162958</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6523326637242141</v>
+        <v>0.6780694503766016</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6032261868975547</v>
+        <v>-0.6070778116873775</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07523271907140855</v>
+        <v>0.07815095052230002</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5583622020332523</v>
       </c>
       <c r="E17" t="n">
-        <v>1.144542609127031</v>
+        <v>1.171047517110613</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7088082415161623</v>
+        <v>-0.7163005725335535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1375465620645815</v>
+        <v>0.1401122132323016</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.727630934192833</v>
       </c>
       <c r="E18" t="n">
-        <v>1.497607690187746</v>
+        <v>1.524013434966686</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9016735914586962</v>
+        <v>-0.9098537688320959</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1869329860145119</v>
+        <v>0.1913433875923964</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8972182473656295</v>
       </c>
       <c r="E19" t="n">
-        <v>1.864473770904025</v>
+        <v>1.890629246642678</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.003013664545398</v>
+        <v>-1.014105777293204</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2510884313796066</v>
+        <v>0.2558466911832986</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.064211796047966</v>
       </c>
       <c r="E20" t="n">
-        <v>2.17455553780026</v>
+        <v>2.202296050794063</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.216237377802835</v>
+        <v>-1.228585557809439</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3190892054580389</v>
+        <v>0.3249398345319136</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.223730796543904</v>
       </c>
       <c r="E21" t="n">
-        <v>2.437026374315392</v>
+        <v>2.464352920280294</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.241080121594324</v>
+        <v>-1.257009982111448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4468712257634713</v>
+        <v>0.4518891987221779</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.368039084102407</v>
       </c>
       <c r="E22" t="n">
-        <v>2.659702859405801</v>
+        <v>2.686245543848294</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.347115493719866</v>
+        <v>-1.365500824066219</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4437767041709942</v>
+        <v>0.4505701706985279</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.496923574505925</v>
       </c>
       <c r="E23" t="n">
-        <v>2.731654421478698</v>
+        <v>2.759926952935501</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.454957839796662</v>
+        <v>-1.474414290155059</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5417184699748082</v>
+        <v>0.5490770093668889</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.610514248513677</v>
       </c>
       <c r="E24" t="n">
-        <v>2.861090735880617</v>
+        <v>2.887867949172184</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.603114750617771</v>
+        <v>-1.620905101736272</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5823265892852446</v>
+        <v>0.5899212315455205</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.709722720414885</v>
       </c>
       <c r="E25" t="n">
-        <v>2.871406857201622</v>
+        <v>2.898377674845109</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.544371570001269</v>
+        <v>-1.564877891113574</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6352482601816164</v>
+        <v>0.643381216981377</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.792853223150783</v>
       </c>
       <c r="E26" t="n">
-        <v>2.857246981186401</v>
+        <v>2.883918735196841</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.452864394365332</v>
+        <v>-1.47667772965149</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5728824745574405</v>
+        <v>0.5822116858893897</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.859378356769537</v>
       </c>
       <c r="E27" t="n">
-        <v>2.9358566441424</v>
+        <v>2.959703033830105</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.49825517077584</v>
+        <v>-1.521450703556888</v>
       </c>
       <c r="G27" t="n">
-        <v>0.604361282964333</v>
+        <v>0.6130671827242471</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.911604813628065</v>
       </c>
       <c r="E28" t="n">
-        <v>2.876673525181494</v>
+        <v>2.900510470754472</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.452371726380365</v>
+        <v>-1.475554667008442</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6228261012763113</v>
+        <v>0.6308268404698827</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.951291141540547</v>
       </c>
       <c r="E29" t="n">
-        <v>2.738018180786117</v>
+        <v>2.763950145809545</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.615981569924843</v>
+        <v>-1.635131086554587</v>
       </c>
       <c r="G29" t="n">
-        <v>0.592578175822276</v>
+        <v>0.6009299212798974</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.983432303010922</v>
       </c>
       <c r="E30" t="n">
-        <v>2.701189281385923</v>
+        <v>2.724454858017868</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.602931377390139</v>
+        <v>-1.621104215155116</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5423653918336627</v>
+        <v>0.5513986875708075</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.007560097395777</v>
       </c>
       <c r="E31" t="n">
-        <v>2.589443367888302</v>
+        <v>2.611690554148766</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.647480840580313</v>
+        <v>-1.662795259621008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5391071722525703</v>
+        <v>0.546292569541308</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.025055141982378</v>
       </c>
       <c r="E32" t="n">
-        <v>2.551552005581231</v>
+        <v>2.57226924525579</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.697018370365888</v>
+        <v>-1.710274759405482</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5307538527758277</v>
+        <v>0.5380163770015089</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.033976719671776</v>
       </c>
       <c r="E33" t="n">
-        <v>2.37695236053183</v>
+        <v>2.397186376336151</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.691685593582921</v>
+        <v>-1.703571011967863</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5268975059286409</v>
+        <v>0.5342371570912661</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.034458105230791</v>
       </c>
       <c r="E34" t="n">
-        <v>2.202141796920176</v>
+        <v>2.222937737550801</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.682671186075232</v>
+        <v>-1.694398415538483</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4697968142652159</v>
+        <v>0.4758898422837708</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.025405526676034</v>
       </c>
       <c r="E35" t="n">
-        <v>2.049800356265089</v>
+        <v>2.070431024887977</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.728310657506906</v>
+        <v>-1.737643803886659</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4071933517537236</v>
+        <v>0.4132438812560035</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.005245238604918</v>
       </c>
       <c r="E36" t="n">
-        <v>1.901346742839614</v>
+        <v>1.920988927454326</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.589887480931921</v>
+        <v>-1.601612349366489</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4113582063486853</v>
+        <v>0.4164202518427882</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.973095429348599</v>
       </c>
       <c r="E37" t="n">
-        <v>1.69911361809666</v>
+        <v>1.719361800073071</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.575201882530185</v>
+        <v>-1.587108550173264</v>
       </c>
       <c r="G37" t="n">
-        <v>0.324371613629124</v>
+        <v>0.3314987722103735</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.92600592120431</v>
       </c>
       <c r="E38" t="n">
-        <v>1.582067982217619</v>
+        <v>1.602187094626085</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.470765713831884</v>
+        <v>-1.483135143096626</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2783457205031706</v>
+        <v>0.284786606747533</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.864393271112377</v>
       </c>
       <c r="E39" t="n">
-        <v>1.408713386293168</v>
+        <v>1.428766389898539</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.430722667385995</v>
+        <v>-1.443934983890193</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2656087577736054</v>
+        <v>0.2715790123006989</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.785889442120717</v>
       </c>
       <c r="E40" t="n">
-        <v>1.176551861977801</v>
+        <v>1.197486316291101</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.510538815998471</v>
+        <v>-1.520569252848959</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2905128883108249</v>
+        <v>0.2947580178809729</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.693654065970718</v>
       </c>
       <c r="E41" t="n">
-        <v>1.098433292987648</v>
+        <v>1.11747105425978</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.449475531197171</v>
+        <v>-1.460051365673191</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1905343417640478</v>
+        <v>0.1949699276478732</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.589705912836614</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9646007431799362</v>
+        <v>0.9821919808795927</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.326476167991811</v>
+        <v>-1.338753517137956</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1507179540716256</v>
+        <v>0.1550528027316877</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.479973920763175</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8803482216740742</v>
+        <v>0.8965732107764417</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.264403936933758</v>
+        <v>-1.276257087926713</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1102074239467098</v>
+        <v>0.1143927407902484</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.368739874020844</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7076547137805693</v>
+        <v>0.7238088720224782</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.189138277600962</v>
+        <v>-1.201460486292065</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09488906985821154</v>
+        <v>0.09905077641493056</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.259570139448301</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5505487172453051</v>
+        <v>0.566702875487214</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.163409361044181</v>
+        <v>-1.173817562483782</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08210016449764344</v>
+        <v>0.08546541737898432</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.155755456537786</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3782502881512466</v>
+        <v>0.3946248090701376</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.017846433734975</v>
+        <v>-1.030366181825801</v>
       </c>
       <c r="G46" t="n">
-        <v>0.006978527914446825</v>
+        <v>0.01053266309034378</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.057349653321255</v>
       </c>
       <c r="E47" t="n">
-        <v>0.305118211737374</v>
+        <v>0.3193646588042665</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.045856103998521</v>
+        <v>-1.055627614703556</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.03177854490934001</v>
+        <v>-0.02829524059390159</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9664167242513735</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1706812385870823</v>
+        <v>0.1848379665640607</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9131442558051749</v>
+        <v>-0.9247526468247675</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01546068867881578</v>
+        <v>-0.01338927951518407</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8815135576839762</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1706151297839876</v>
+        <v>0.1826799863487574</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8852117124785729</v>
+        <v>-0.8965068736930266</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1013863925106203</v>
+        <v>-0.0972152418391735</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8030531209000332</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.01026327754028091</v>
+        <v>0.002895522313792841</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.825646106871191</v>
+        <v>-0.8371592697339448</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1078178346402549</v>
+        <v>-0.1044919322369466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.728145713010516</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.01258495574419942</v>
+        <v>-0.001267758262047478</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.926705217544741</v>
+        <v>-0.935064833097969</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1518919440557955</v>
+        <v>-0.148104854049946</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6548001000391239</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.06118122209523686</v>
+        <v>-0.05072186503419379</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8876978756806674</v>
+        <v>-0.8964974295782988</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1591702084726899</v>
+        <v>-0.1561040192243961</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5808001078503114</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1253886100913345</v>
+        <v>-0.1155572866596904</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8422449255148674</v>
+        <v>-0.8510987830721838</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1957409687369901</v>
+        <v>-0.1926826495843028</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5059808930278831</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2299176459177919</v>
+        <v>-0.2195181015833582</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.848728310275505</v>
+        <v>-0.8573712492705671</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2474789772541437</v>
+        <v>-0.2439594704989153</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4321964053698958</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3125867041876253</v>
+        <v>-0.3019762412909374</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8288397916683101</v>
+        <v>-0.8378809575010613</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2338290834342241</v>
+        <v>-0.2323983000529618</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3610750539477713</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.342030305870676</v>
+        <v>-0.3331512640074188</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8145476980468999</v>
+        <v>-0.8237383956961746</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.23727303727163</v>
+        <v>-0.2357053142268145</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2948713458931583</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.397974093479945</v>
+        <v>-0.3889297796089513</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8147003779016661</v>
+        <v>-0.8243711513829375</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3543958000876142</v>
+        <v>-0.3511218403153087</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2344254051130302</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4160359628968704</v>
+        <v>-0.4080336496841777</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7164422342544706</v>
+        <v>-0.727463516141818</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3639044495993916</v>
+        <v>-0.3607170608787578</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1810541276401689</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5303333613901199</v>
+        <v>-0.5217990297144275</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7132328092661385</v>
+        <v>-0.7247105566986631</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4178775652687922</v>
+        <v>-0.4144713878902975</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1342585080063954</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5457477306450175</v>
+        <v>-0.5379689281475495</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7015394212139957</v>
+        <v>-0.7130392049142185</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4186346684661378</v>
+        <v>-0.4160973496426011</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.09319145061124799</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5552374919273393</v>
+        <v>-0.5496953706012396</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7133099362030823</v>
+        <v>-0.7251528560717486</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4594946308359824</v>
+        <v>-0.4566928768000672</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.05631686089486879</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6666072148549695</v>
+        <v>-0.6594658901016283</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7527107828474811</v>
+        <v>-0.7645505546779048</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4933832625175862</v>
+        <v>-0.4902556865235618</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.02282189199990032</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7459031501478556</v>
+        <v>-0.7389774660141325</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7670375048895599</v>
+        <v>-0.7790252345173859</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5554153560880464</v>
+        <v>-0.5514692901509455</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.008001037449871891</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7738388415127002</v>
+        <v>-0.7675128586641927</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8170472404115253</v>
+        <v>-0.8280590781841449</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5467173264237387</v>
+        <v>-0.5433536475615192</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.03650521647486334</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8318847316584663</v>
+        <v>-0.8249189100371501</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8301737728736124</v>
+        <v>-0.8410636241643312</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5845976705969611</v>
+        <v>-0.5810120550386381</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.06206065477457976</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8609080702361297</v>
+        <v>-0.8536479070391303</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9369922195120016</v>
+        <v>-0.9466873902896532</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6725995056497612</v>
+        <v>-0.6672808950388862</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.08471675516118365</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9903735039917931</v>
+        <v>-0.9818572735359958</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8997706023410437</v>
+        <v>-0.9103346316736532</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6705690209832833</v>
+        <v>-0.6658375195046534</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1047670293542152</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.037926982674969</v>
+        <v>-1.030112764747272</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9852673859622938</v>
+        <v>-0.9950349616195252</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7338335715257219</v>
+        <v>-0.7277861900616847</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1232062235599009</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.071554327182437</v>
+        <v>-1.062562742952007</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9492388752852816</v>
+        <v>-0.9596085132564106</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7631071791436721</v>
+        <v>-0.75706609375612</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1404807943634256</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.227793826191425</v>
+        <v>-1.215621149316846</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9468880777276191</v>
+        <v>-0.9572852610333707</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7858863838671356</v>
+        <v>-0.7794612378139862</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1559094112401941</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.232539493842147</v>
+        <v>-1.220073262401445</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9888915649890886</v>
+        <v>-0.9993092105434171</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8160304240591651</v>
+        <v>-0.809539169202921</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.168622376798299</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.21055516877494</v>
+        <v>-1.197397155930427</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.080142175508253</v>
+        <v>-1.089559531910995</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7783184999319219</v>
+        <v>-0.77204760775266</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1776334168829561</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.168055865490261</v>
+        <v>-1.154978914630495</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.151446815722296</v>
+        <v>-1.158711700976659</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7674561939758259</v>
+        <v>-0.7615866766724956</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1819562988353708</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.172748016490858</v>
+        <v>-1.158258383469725</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.143824628127397</v>
+        <v>-1.151781294785572</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7771175233423695</v>
+        <v>-0.7698298148107473</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1811347512030269</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.095308636751546</v>
+        <v>-1.080995293871998</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.172516635680027</v>
+        <v>-1.181382298380753</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7928797508230746</v>
+        <v>-0.7849813228723878</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1759359128547939</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.00601689302884</v>
+        <v>-0.9914682342906578</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.257183911224351</v>
+        <v>-1.264735267958792</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7331504472270773</v>
+        <v>-0.7265458629940997</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1667112690353885</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8946589752446197</v>
+        <v>-0.8803086429157213</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.203745962056193</v>
+        <v>-1.212048912921054</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7476188309900733</v>
+        <v>-0.7394638379226145</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1530706331226965</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8051854323134033</v>
+        <v>-0.7904998339116679</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.2058118621529</v>
+        <v>-1.213991252516739</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7070091376605155</v>
+        <v>-0.6991075616715862</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1344264184039823</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6846753803483802</v>
+        <v>-0.6693334159730623</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.272218941871016</v>
+        <v>-1.280050474009047</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6840347545660107</v>
+        <v>-0.6759789247031938</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1098505676913486</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5112987481562307</v>
+        <v>-0.4946818282926593</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.185204803816832</v>
+        <v>-1.194083058670528</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7025940140252671</v>
+        <v>-0.6936032168043976</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07916861081551657</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2836247523556927</v>
+        <v>-0.2694239518433179</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.20100716878513</v>
+        <v>-1.20895832637638</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6319079633258958</v>
+        <v>-0.6242912847979218</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.04324816517420484</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1142067782536144</v>
+        <v>-0.1007142863458249</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.207416574647066</v>
+        <v>-1.216399501772329</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4951603301055347</v>
+        <v>-0.4893002569169322</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.003914378283754895</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07493522945748272</v>
+        <v>0.08840725911669531</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.123014521324681</v>
+        <v>-1.132022632755885</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4527751432071498</v>
+        <v>-0.447316444894479</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.03693566904833321</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2231480179573981</v>
+        <v>0.236815225987652</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.095001703022892</v>
+        <v>-1.104429290549923</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3609327014983759</v>
+        <v>-0.3555841845241962</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07731612476531666</v>
       </c>
       <c r="E85" t="n">
-        <v>0.437740340840806</v>
+        <v>0.4488765261240084</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.075783716561372</v>
+        <v>-1.084015049556214</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2818193524235608</v>
+        <v>-0.2783061417448177</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1135886354557966</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5958426914798537</v>
+        <v>0.6069332302085383</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9666498877955492</v>
+        <v>-0.9753793978422828</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2251971625730111</v>
+        <v>-0.2211346192209341</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.142689442435615</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8256998518016356</v>
+        <v>0.8347882382080258</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9229488209117569</v>
+        <v>-0.9298532557873423</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.167085950633711</v>
+        <v>-0.1633366370867728</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1618941762483543</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9346440112633415</v>
+        <v>0.9432806541819183</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7473103232422984</v>
+        <v>-0.7549081135408168</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1015831449007829</v>
+        <v>-0.09887110995478182</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1691058871443107</v>
       </c>
       <c r="E89" t="n">
-        <v>1.181868898569555</v>
+        <v>1.189055869877414</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5891733441825822</v>
+        <v>-0.5973661137089522</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02540871780575658</v>
+        <v>0.02602258526306385</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1628967581078917</v>
       </c>
       <c r="E90" t="n">
-        <v>1.35493702301393</v>
+        <v>1.360693210940527</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5171005826373449</v>
+        <v>-0.5249014214025112</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04718999440631549</v>
+        <v>0.0472088826357711</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1425139266391124</v>
       </c>
       <c r="E91" t="n">
-        <v>1.437796537597441</v>
+        <v>1.442677570892594</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2971518726841508</v>
+        <v>-0.3055114882373787</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07814622846493613</v>
+        <v>0.07761578402105779</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1084036371454235</v>
       </c>
       <c r="E92" t="n">
-        <v>1.581844471502394</v>
+        <v>1.584336143771413</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2104171230239977</v>
+        <v>-0.2173113267752947</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09094142990198942</v>
+        <v>0.09036848694183597</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06160310289984675</v>
       </c>
       <c r="E93" t="n">
-        <v>1.594713651838149</v>
+        <v>1.596265634691751</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.004340243586826421</v>
+        <v>-0.01125018752933644</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1189054536110174</v>
+        <v>0.117735957403891</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.005933705071654773</v>
       </c>
       <c r="E94" t="n">
-        <v>1.544096344935361</v>
+        <v>1.545601107215325</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1529137107458401</v>
+        <v>0.146165890772824</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1340380734432022</v>
+        <v>0.1321870269565526</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0536827682546821</v>
       </c>
       <c r="E95" t="n">
-        <v>1.538662830928631</v>
+        <v>1.539519097330619</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2035782382222666</v>
+        <v>0.1990733954971041</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1460336731666348</v>
+        <v>0.1437718076893257</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1125826978196678</v>
       </c>
       <c r="E96" t="n">
-        <v>1.51128749037097</v>
+        <v>1.510314746554006</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2937443495668552</v>
+        <v>0.2892536730137844</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0524566623861876</v>
+        <v>0.05184594296712293</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1679579001363526</v>
       </c>
       <c r="E97" t="n">
-        <v>1.353178843655437</v>
+        <v>1.352623214905618</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3085117969628983</v>
+        <v>0.3048836828883002</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03202746821082597</v>
+        <v>0.03144193309770212</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2178845088182147</v>
       </c>
       <c r="E98" t="n">
-        <v>1.292574385427997</v>
+        <v>1.291011384440545</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2620357343682529</v>
+        <v>0.2586106687603026</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0295657023051117</v>
+        <v>0.02835213356258887</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2598425963713462</v>
       </c>
       <c r="E99" t="n">
-        <v>1.189148737005571</v>
+        <v>1.187568421807785</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2319703951322884</v>
+        <v>0.230031203574846</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06447587239643965</v>
+        <v>0.06240603725192925</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2921181884137931</v>
       </c>
       <c r="E100" t="n">
-        <v>1.072518642174554</v>
+        <v>1.070919438747312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2306072945732421</v>
+        <v>0.227859057187451</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02696857075496556</v>
+        <v>0.0254590864176382</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3154408395411189</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9111486278396861</v>
+        <v>0.9097052523054534</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1950124261641483</v>
+        <v>0.1933471139338122</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01326020994723742</v>
+        <v>-0.014132216540438</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3321693615556564</v>
       </c>
       <c r="E102" t="n">
-        <v>0.740454124230233</v>
+        <v>0.739956734187902</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1560743411414119</v>
+        <v>0.155488806028288</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03613070777973641</v>
+        <v>-0.03740408924886867</v>
       </c>
     </row>
   </sheetData>
